--- a/Phase_2/eer2rel.xlsx
+++ b/Phase_2/eer2rel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanc\OneDrive\Documents\GitHub\cs6400-2022-02-Team65\Phase_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B240F2-819D-4C73-8275-7711906B4AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D7DBE3-22B1-4DC3-8F7C-57B737FB245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="15" windowWidth="24315" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="24315" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>User</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Longtitude</t>
   </si>
   <si>
-    <t>Item-Board Game</t>
-  </si>
-  <si>
     <t>Item #</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Accepted/Rejected Date</t>
+  </si>
+  <si>
+    <t>Item-(Basic type is Board Game)</t>
   </si>
 </sst>
 </file>
@@ -272,8 +272,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>530087</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>216775</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
@@ -281,7 +281,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>198782</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -296,37 +296,37 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5251174" y="1258957"/>
-          <a:ext cx="1391478" cy="1515717"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
+          <a:off x="2207172" y="1258957"/>
+          <a:ext cx="4422627" cy="1447457"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374431</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
@@ -334,7 +334,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>314739</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:rowOff>105103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -349,43 +349,43 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5888935" y="1830457"/>
-          <a:ext cx="869674" cy="902804"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+          <a:off x="2975741" y="1830457"/>
+          <a:ext cx="3770015" cy="941646"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>430696</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>397565</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>229914</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
@@ -402,8 +402,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5151783" y="2418522"/>
-          <a:ext cx="1689652" cy="753717"/>
+          <a:off x="2421093" y="3166241"/>
+          <a:ext cx="1336355" cy="5998"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -484,218 +484,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>405848</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347869</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D28EA2B-0B60-41B2-92F9-F41E5779DA4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3014870" y="670891"/>
-          <a:ext cx="3776869" cy="1350066"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>405848</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314739</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AC3A2B-2BDE-47E9-8E4A-36FEBA9C7311}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3014870" y="679174"/>
-          <a:ext cx="3743739" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>397565</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323021</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9FD5B0-427F-4F43-AE2E-761571DF5AF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3006587" y="662609"/>
-          <a:ext cx="3760304" cy="2112065"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314739</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C981A1C5-975E-455A-A831-ACE53FCD1E13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3023152" y="687457"/>
-          <a:ext cx="3735457" cy="2476500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>215348</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -758,10 +546,10 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>354724</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:rowOff>105103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -776,8 +564,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="851297" y="500062"/>
-          <a:ext cx="2857500" cy="1512612"/>
+          <a:off x="854992" y="500062"/>
+          <a:ext cx="879215" cy="1510041"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -814,10 +602,10 @@
       <xdr:rowOff>136922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>248478</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348155</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:rowOff>118241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -832,8 +620,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="875109" y="517922"/>
-          <a:ext cx="2891666" cy="1867469"/>
+          <a:off x="878804" y="517922"/>
+          <a:ext cx="848834" cy="1886319"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -870,10 +658,10 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>273326</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
+      <xdr:rowOff>151086</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -888,8 +676,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="898922" y="523875"/>
-          <a:ext cx="2892701" cy="2267364"/>
+          <a:off x="902617" y="523875"/>
+          <a:ext cx="779038" cy="2294211"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -926,10 +714,10 @@
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>273326</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:rowOff>151086</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -944,8 +732,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="861391" y="521804"/>
-          <a:ext cx="2948609" cy="2633870"/>
+          <a:off x="859392" y="521804"/>
+          <a:ext cx="822263" cy="2677282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1844,15 +1632,16 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1886,12 +1675,12 @@
         <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>16</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1916,168 +1705,132 @@
         <v>11</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I7" s="2" t="s">
-        <v>23</v>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G20" s="2"/>
     </row>

--- a/Phase_2/eer2rel.xlsx
+++ b/Phase_2/eer2rel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanc\OneDrive\Documents\GitHub\cs6400-2022-02-Team65\Phase_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D7DBE3-22B1-4DC3-8F7C-57B737FB245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E0E7E-CDC3-4C1B-9A59-57EB494025E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="0" windowWidth="24315" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>User</t>
   </si>
@@ -272,8 +272,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>216775</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243051</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
@@ -281,7 +281,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>198782</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>39414</xdr:rowOff>
+      <xdr:rowOff>98534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -296,8 +296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2207172" y="1258957"/>
-          <a:ext cx="4422627" cy="1447457"/>
+          <a:off x="1622534" y="1258957"/>
+          <a:ext cx="5164920" cy="1506577"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -325,8 +325,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>374431</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354724</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
@@ -334,7 +334,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>314739</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
+      <xdr:rowOff>118241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -349,8 +349,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2975741" y="1830457"/>
-          <a:ext cx="3770015" cy="941646"/>
+          <a:off x="2345121" y="1830457"/>
+          <a:ext cx="4558290" cy="954784"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -378,13 +378,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>430696</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>118241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>229914</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
@@ -510,230 +510,6 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="828261" y="480391"/>
           <a:ext cx="2948609" cy="1159566"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>244078</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>354724</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E509B150-EFDF-454B-B49F-42B4282897D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="854992" y="500062"/>
-          <a:ext cx="879215" cy="1510041"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>267890</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>136922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>348155</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>118241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BC358A-5C9D-4C13-ABAE-4BDA3F316B17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="878804" y="517922"/>
-          <a:ext cx="848834" cy="1886319"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>291703</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>302172</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>151086</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C59989-76ED-49B1-AFE7-F9BE6EB83517}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="902617" y="523875"/>
-          <a:ext cx="779038" cy="2294211"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>140804</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>302172</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>151086</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6749BE68-5EBA-4744-9980-C7F9836424AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="859392" y="521804"/>
-          <a:ext cx="822263" cy="2677282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1632,7 +1408,7 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,9 +1526,6 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -1764,9 +1537,6 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1780,12 +1550,9 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1793,7 +1560,7 @@
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1802,12 +1569,9 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Phase_2/eer2rel.xlsx
+++ b/Phase_2/eer2rel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanc\OneDrive\Documents\GitHub\cs6400-2022-02-Team65\Phase_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E0E7E-CDC3-4C1B-9A59-57EB494025E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A0167-D5A6-4B6A-94EE-3CFA055DB162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="0" windowWidth="24315" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>User</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Nickname</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Postal Code</t>
   </si>
   <si>
@@ -75,12 +69,6 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Item-Playing Card Game</t>
-  </si>
-  <si>
     <t>Item-Collectible Card Game</t>
   </si>
   <si>
@@ -127,6 +115,21 @@
   </si>
   <si>
     <t>Item-(Basic type is Board Game)</t>
+  </si>
+  <si>
+    <t>Game Type</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>OwnerID</t>
   </si>
 </sst>
 </file>
@@ -272,16 +275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>243051</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>197069</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>198782</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>98534</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -296,36 +299,36 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1622534" y="1258957"/>
-          <a:ext cx="5164920" cy="1506577"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
+          <a:off x="2187466" y="1258957"/>
+          <a:ext cx="4599988" cy="1270095"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>354724</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
@@ -333,15 +336,68 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314739</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B29057-E480-45CE-995A-E90191E94C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3291052" y="1830457"/>
+          <a:ext cx="3612359" cy="711733"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>654041</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>118241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B29057-E480-45CE-995A-E90191E94C54}"/>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137949</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056A16D2-B334-4708-AABF-D33DC43F52ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -349,61 +405,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2345121" y="1830457"/>
-          <a:ext cx="4558290" cy="954784"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>430696</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>118241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>229914</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056A16D2-B334-4708-AABF-D33DC43F52ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2421093" y="3166241"/>
-          <a:ext cx="1336355" cy="5998"/>
+          <a:off x="2644438" y="2975741"/>
+          <a:ext cx="1356063" cy="5998"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -485,15 +488,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>215348</xdr:colOff>
+      <xdr:colOff>313883</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>240196</xdr:colOff>
+      <xdr:rowOff>86253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144518</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
+      <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -508,8 +511,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="828261" y="480391"/>
-          <a:ext cx="2948609" cy="1159566"/>
+          <a:off x="924797" y="467253"/>
+          <a:ext cx="4488031" cy="1096161"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -548,7 +551,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>164224</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>118241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -594,67 +597,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>177362</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>98534</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>269327</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFAABA1-81A0-45C6-B290-6EE0D107D51D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="788276" y="2003534"/>
-          <a:ext cx="91965" cy="1701363"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>170793</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>137948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>335017</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>72259</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -701,13 +651,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>177362</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348155</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>105103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -754,13 +704,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>177362</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>124810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>341586</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>98534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -783,62 +733,6 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>217347</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>242195</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603F1947-CE26-4347-85BF-930382AA7909}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="828261" y="480391"/>
-          <a:ext cx="2941468" cy="1159566"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -869,7 +763,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>440120</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -918,22 +812,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>335017</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>407276</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>433551</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>98534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735F700D-C3F6-4CB4-95DF-E91DD0676758}"/>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE426B5-3C18-4CB9-A50C-C2DA55DE4CDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,8 +835,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="945931" y="2010103"/>
-          <a:ext cx="840828" cy="1707931"/>
+          <a:off x="952500" y="2417379"/>
+          <a:ext cx="860534" cy="1300655"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -974,22 +868,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>341586</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>131379</xdr:rowOff>
+      <xdr:colOff>336331</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>433551</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>98534</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE426B5-3C18-4CB9-A50C-C2DA55DE4CDF}"/>
+      <xdr:colOff>426983</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD45DF14-0745-4DF0-9914-551E9D2A6CE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -997,8 +891,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="2417379"/>
-          <a:ext cx="860534" cy="1300655"/>
+          <a:off x="947245" y="2773417"/>
+          <a:ext cx="859221" cy="964324"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1030,22 +924,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>336331</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106417</xdr:rowOff>
+      <xdr:colOff>361293</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>426983</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>118241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD45DF14-0745-4DF0-9914-551E9D2A6CE6}"/>
+      <xdr:colOff>407276</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98534</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C281A8C1-6E12-49D9-AE27-39B17586688C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,8 +947,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="947245" y="2773417"/>
-          <a:ext cx="859221" cy="964324"/>
+          <a:off x="972207" y="3153103"/>
+          <a:ext cx="814552" cy="564931"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1085,32 +979,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361293</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>407276</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>98534</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C281A8C1-6E12-49D9-AE27-39B17586688C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="972207" y="3153103"/>
-          <a:ext cx="814552" cy="564931"/>
+      <xdr:colOff>656897</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E16D62-FCE4-444F-937C-E8334865880C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2141483" y="1648810"/>
+          <a:ext cx="847396" cy="564931"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1119,6 +1013,171 @@
           <a:solidFill>
             <a:schemeClr val="accent4"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624052</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>374431</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20505047-FB93-4DC3-872E-0BD6B71A8133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2108638" y="1675086"/>
+          <a:ext cx="873672" cy="906517"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>656897</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>394138</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD73619-7098-47BB-9C12-FEA87529C0E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2141483" y="1681655"/>
+          <a:ext cx="860534" cy="1287517"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>683173</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98534</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368C9F7B-D979-4784-B840-2FD1FDCAF465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3291052" y="1668517"/>
+          <a:ext cx="3547241" cy="716017"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1405,18 +1464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1442,161 +1502,172 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="I10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>18</v>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Phase_2/eer2rel.xlsx
+++ b/Phase_2/eer2rel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanc\OneDrive\Documents\GitHub\cs6400-2022-02-Team65\Phase_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A0167-D5A6-4B6A-94EE-3CFA055DB162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD7CEC6-D934-440B-9955-A89A4EBF28BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="0" windowWidth="24315" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>User</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Accepted/Rejected Date</t>
   </si>
   <si>
-    <t>Item-(Basic type is Board Game)</t>
-  </si>
-  <si>
     <t>Game Type</t>
   </si>
   <si>
@@ -130,6 +127,18 @@
   </si>
   <si>
     <t>OwnerID</t>
+  </si>
+  <si>
+    <t>computer_game_platform</t>
+  </si>
+  <si>
+    <t>video_game_platform</t>
+  </si>
+  <si>
+    <t>game_type</t>
+  </si>
+  <si>
+    <t>Item-(Basic type is Board Game and playing card game)</t>
   </si>
 </sst>
 </file>
@@ -382,15 +391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>654041</xdr:colOff>
+      <xdr:colOff>1478018</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144517</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>118241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137949</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -405,8 +414,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2644438" y="2975741"/>
-          <a:ext cx="1356063" cy="5998"/>
+          <a:off x="4085897" y="2969172"/>
+          <a:ext cx="3442137" cy="6569"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1467,14 +1476,14 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
@@ -1502,10 +1511,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -1551,7 +1560,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -1562,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1571,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>21</v>
@@ -1593,13 +1602,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -1607,7 +1616,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -1615,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -1628,7 +1637,7 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1637,12 +1646,12 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
